--- a/Gmaps/stmichaelslinecoords.xlsx
+++ b/Gmaps/stmichaelslinecoords.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5329B02-0AD1-4F72-B53B-7B4B270F0528}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geom99Web\Geom99clone\Geom99\Gmaps\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA6EEF1-ACCE-4446-8CC4-247CC65AB64A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1100" windowWidth="15650" windowHeight="9700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -59,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,17 +412,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -439,7 +444,7 @@
         <v>-10.533300000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -450,7 +455,7 @@
         <v>-5.4778000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -461,7 +466,7 @@
         <v>-1.5115000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -472,7 +477,7 @@
         <v>7.3422000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -483,7 +488,7 @@
         <v>12.385300000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
